--- a/DataS4.xlsx
+++ b/DataS4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/xzw0070_auburn_edu/Documents/Manuscript/=submitted=/2019-insect_telomere_repeats [Bioaxiv2020]/=submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurrentProjects\Telomere\2020_insectTelomere_sppData\2020_insectTelomere_sppData - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8EB3DEE4-1576-4CFC-9BF7-046C46EB0D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81F454A1-CC6A-449D-A6BE-C5F482055044}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6FBD4-AD0B-4688-9F85-12496ECC4EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5205" windowWidth="29040" windowHeight="15840" xr2:uid="{F5EA5868-18B0-4058-AA77-4838F7CA794D}"/>
+    <workbookView xWindow="39216" yWindow="5208" windowWidth="29040" windowHeight="15840" xr2:uid="{F5EA5868-18B0-4058-AA77-4838F7CA794D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -443,9 +434,6 @@
     <t>Libellula</t>
   </si>
   <si>
-    <t>Libellula angelina</t>
-  </si>
-  <si>
     <t>LIBAN</t>
   </si>
   <si>
@@ -455,9 +443,6 @@
     <t>Ladona</t>
   </si>
   <si>
-    <t>Ladona fulva</t>
-  </si>
-  <si>
     <t>LADFU</t>
   </si>
   <si>
@@ -474,9 +459,6 @@
   </si>
   <si>
     <t>Coenagrion</t>
-  </si>
-  <si>
-    <t>Coenagrion scitulum</t>
   </si>
   <si>
     <t>COESC</t>
@@ -2488,17 +2470,29 @@
   </si>
   <si>
     <t xml:space="preserve"> 	10.1016/j.cell.2020.09.043</t>
+  </si>
+  <si>
+    <t>Libellula angelina</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ladona fulva</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coenagrion scitulum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2506,14 +2500,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2524,7 +2518,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2544,7 +2538,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2931,32 +2925,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E4781B-CD08-4E40-B153-3A9C14662724}">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
+    <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2976,66 +2972,66 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3094,7 +3090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -3267,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
@@ -3319,10 +3315,10 @@
         <v>23.48</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
@@ -3389,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -3546,7 +3542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>81</v>
       </c>
@@ -3603,7 +3599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>99</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>85</v>
@@ -3721,7 +3717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>108</v>
       </c>
@@ -3735,7 +3731,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>103</v>
@@ -3778,7 +3774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>112</v>
       </c>
@@ -3792,7 +3788,7 @@
         <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>103</v>
@@ -3835,7 +3831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>122</v>
       </c>
@@ -3894,15 +3890,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>784</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>111</v>
@@ -3948,18 +3944,18 @@
         <v>22.53</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>136</v>
+        <v>785</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>111</v>
@@ -3987,7 +3983,7 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N19" s="1">
         <v>101</v>
@@ -4005,18 +4001,18 @@
         <v>175.14</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>143</v>
+        <v>786</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>111</v>
@@ -4037,14 +4033,14 @@
         <v>128</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N20" s="1">
         <v>101</v>
@@ -4062,18 +4058,18 @@
         <v>52.7</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>111</v>
@@ -4092,14 +4088,14 @@
         <v>128</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N21" s="1">
         <v>150</v>
@@ -4117,18 +4113,18 @@
         <v>19.55</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>111</v>
@@ -4147,14 +4143,14 @@
         <v>128</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N22" s="1">
         <v>151</v>
@@ -4172,18 +4168,18 @@
         <v>6.16</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -4201,19 +4197,19 @@
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="N23" s="1">
         <v>250</v>
@@ -4231,18 +4227,18 @@
         <v>516.77</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>111</v>
@@ -4251,7 +4247,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -4260,17 +4256,17 @@
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N24" s="1">
         <f>P24/O24</f>
@@ -4290,18 +4286,18 @@
         <v>133.72355014452108</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>52</v>
@@ -4319,17 +4315,17 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N25" s="1">
         <f>P25/O25</f>
@@ -4349,18 +4345,18 @@
         <v>92.836364671612387</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -4369,28 +4365,28 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="N26" s="1">
         <v>100.22</v>
@@ -4408,18 +4404,18 @@
         <v>121.69</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -4428,28 +4424,28 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="N27" s="1">
         <v>100.4</v>
@@ -4467,18 +4463,18 @@
         <v>63.04</v>
       </c>
       <c r="S27" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -4487,28 +4483,28 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="N28" s="1">
         <v>100.5</v>
@@ -4526,18 +4522,18 @@
         <v>110.68</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>111</v>
@@ -4546,28 +4542,28 @@
         <v>126</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="N29" s="1">
         <v>150.47</v>
@@ -4585,18 +4581,18 @@
         <v>65.239999999999995</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>111</v>
@@ -4605,7 +4601,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>3</v>
@@ -4614,19 +4610,19 @@
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N30" s="1">
         <v>125</v>
@@ -4644,18 +4640,18 @@
         <v>36.119999999999997</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>111</v>
@@ -4664,7 +4660,7 @@
         <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>3</v>
@@ -4673,19 +4669,19 @@
         <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="N31" s="1">
         <v>119.41</v>
@@ -4703,48 +4699,48 @@
         <v>354.69</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="N32" s="1">
         <f>P32/O32</f>
@@ -4764,27 +4760,27 @@
         <v>54.49569131452008</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>3</v>
@@ -4793,19 +4789,19 @@
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="N33" s="1">
         <v>151</v>
@@ -4823,27 +4819,27 @@
         <v>1185.42</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>3</v>
@@ -4852,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N34" s="1">
         <v>150</v>
@@ -4882,27 +4878,27 @@
         <v>327.35000000000002</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>3</v>
@@ -4911,19 +4907,19 @@
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N35" s="1">
         <v>150</v>
@@ -4941,27 +4937,27 @@
         <v>171.61</v>
       </c>
       <c r="S35" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>3</v>
@@ -4970,19 +4966,19 @@
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N36" s="1">
         <v>126</v>
@@ -5000,27 +4996,27 @@
         <v>55.59</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>3</v>
@@ -5029,19 +5025,19 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N37" s="1">
         <v>150.56</v>
@@ -5059,27 +5055,27 @@
         <v>428.23</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>3</v>
@@ -5088,19 +5084,19 @@
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N38" s="1">
         <v>150.09</v>
@@ -5118,27 +5114,27 @@
         <v>243.88</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -5147,19 +5143,19 @@
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N39" s="1">
         <v>150</v>
@@ -5177,18 +5173,18 @@
         <v>275.91000000000003</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -5197,28 +5193,28 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="N40" s="1">
         <v>101</v>
@@ -5236,18 +5232,18 @@
         <v>573.63</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>111</v>
@@ -5263,19 +5259,19 @@
         <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="N41" s="1">
         <v>100</v>
@@ -5294,27 +5290,27 @@
         <v>18.411879028849853</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>3</v>
@@ -5323,19 +5319,19 @@
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="N42" s="1">
         <v>151</v>
@@ -5353,27 +5349,27 @@
         <v>36.83</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -5382,17 +5378,17 @@
         <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N43" s="1">
         <v>151</v>
@@ -5410,27 +5406,27 @@
         <v>139.62</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>3</v>
@@ -5439,19 +5435,19 @@
         <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N44" s="1">
         <v>151</v>
@@ -5469,18 +5465,18 @@
         <v>6.85</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -5496,17 +5492,17 @@
         <v>4</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N45" s="1">
         <v>101</v>
@@ -5524,18 +5520,18 @@
         <v>298.26</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>111</v>
@@ -5544,28 +5540,28 @@
         <v>126</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="N46" s="1">
         <v>65.34</v>
@@ -5583,18 +5579,18 @@
         <v>319.62</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>111</v>
@@ -5603,28 +5599,28 @@
         <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="N47" s="1">
         <v>73.510000000000005</v>
@@ -5642,18 +5638,18 @@
         <v>409.99</v>
       </c>
       <c r="S47" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>111</v>
@@ -5662,7 +5658,7 @@
         <v>126</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>3</v>
@@ -5671,19 +5667,19 @@
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N48" s="1">
         <v>109.37</v>
@@ -5701,18 +5697,18 @@
         <v>146.25</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>111</v>
@@ -5728,19 +5724,19 @@
         <v>4</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N49" s="1">
         <v>100</v>
@@ -5758,18 +5754,18 @@
         <v>293.93</v>
       </c>
       <c r="S49" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>111</v>
@@ -5785,19 +5781,19 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N50" s="1">
         <v>100.03</v>
@@ -5815,18 +5811,18 @@
         <v>505.32</v>
       </c>
       <c r="S50" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>111</v>
@@ -5842,19 +5838,19 @@
         <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N51" s="1">
         <v>100</v>
@@ -5872,18 +5868,18 @@
         <v>628.58000000000004</v>
       </c>
       <c r="S51" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>111</v>
@@ -5899,19 +5895,19 @@
         <v>4</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N52" s="1">
         <v>100</v>
@@ -5929,18 +5925,18 @@
         <v>27.07</v>
       </c>
       <c r="S52" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="10" t="s">
-        <v>337</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>111</v>
@@ -5956,19 +5952,19 @@
         <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N53" s="1">
         <v>150</v>
@@ -5986,18 +5982,18 @@
         <v>858.71</v>
       </c>
       <c r="S53" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>111</v>
@@ -6013,19 +6009,19 @@
         <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N54" s="1">
         <v>96.77</v>
@@ -6043,18 +6039,18 @@
         <v>595.19000000000005</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
@@ -6063,28 +6059,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="N55" s="1">
         <v>150</v>
@@ -6102,18 +6098,18 @@
         <v>248.85</v>
       </c>
       <c r="S55" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
@@ -6122,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>3</v>
@@ -6131,19 +6127,19 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="N56" s="1">
         <v>150</v>
@@ -6161,18 +6157,18 @@
         <v>18.41</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -6181,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>3</v>
@@ -6190,19 +6186,19 @@
         <v>4</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N57" s="1">
         <v>125</v>
@@ -6220,18 +6216,18 @@
         <v>342.73</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>111</v>
@@ -6247,17 +6243,17 @@
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N58" s="1">
         <v>151</v>
@@ -6275,18 +6271,18 @@
         <v>15.78</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>111</v>
@@ -6302,17 +6298,17 @@
         <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N59" s="1">
         <v>151</v>
@@ -6330,18 +6326,18 @@
         <v>8.58</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>111</v>
@@ -6357,19 +6353,19 @@
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N60" s="1">
         <v>150</v>
@@ -6387,18 +6383,18 @@
         <v>15.76</v>
       </c>
       <c r="S60" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="10" t="s">
-        <v>384</v>
-      </c>
       <c r="B61" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>111</v>
@@ -6414,19 +6410,19 @@
         <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N61" s="1">
         <v>100</v>
@@ -6444,18 +6440,18 @@
         <v>55.85</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>111</v>
@@ -6471,19 +6467,19 @@
         <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N62" s="1">
         <v>168.86</v>
@@ -6501,18 +6497,18 @@
         <v>249.67</v>
       </c>
       <c r="S62" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="10" t="s">
-        <v>392</v>
-      </c>
       <c r="B63" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>111</v>
@@ -6528,19 +6524,19 @@
         <v>4</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N63" s="1">
         <v>150</v>
@@ -6558,18 +6554,18 @@
         <v>19.2</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>111</v>
@@ -6578,7 +6574,7 @@
         <v>126</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>3</v>
@@ -6587,19 +6583,19 @@
         <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N64" s="1">
         <v>150</v>
@@ -6617,18 +6613,18 @@
         <v>219.58</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>111</v>
@@ -6637,7 +6633,7 @@
         <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>3</v>
@@ -6646,19 +6642,19 @@
         <v>4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N65" s="1">
         <v>150</v>
@@ -6676,18 +6672,18 @@
         <v>81.41</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>111</v>
@@ -6696,7 +6692,7 @@
         <v>126</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>3</v>
@@ -6705,19 +6701,19 @@
         <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N66" s="1">
         <v>150</v>
@@ -6735,18 +6731,18 @@
         <v>42.13</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>111</v>
@@ -6755,7 +6751,7 @@
         <v>126</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>3</v>
@@ -6764,19 +6760,19 @@
         <v>4</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N67" s="1">
         <v>150</v>
@@ -6794,18 +6790,18 @@
         <v>23.27</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>111</v>
@@ -6814,7 +6810,7 @@
         <v>126</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>3</v>
@@ -6823,19 +6819,19 @@
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N68" s="1">
         <v>89.85</v>
@@ -6853,18 +6849,18 @@
         <v>89.72</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>111</v>
@@ -6873,7 +6869,7 @@
         <v>126</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>3</v>
@@ -6882,19 +6878,19 @@
         <v>4</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N69" s="1">
         <v>150</v>
@@ -6912,18 +6908,18 @@
         <v>22.68</v>
       </c>
       <c r="S69" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>111</v>
@@ -6932,7 +6928,7 @@
         <v>126</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>3</v>
@@ -6941,19 +6937,19 @@
         <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N70" s="1">
         <v>150</v>
@@ -6971,18 +6967,18 @@
         <v>20.079999999999998</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>111</v>
@@ -6991,7 +6987,7 @@
         <v>126</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>3</v>
@@ -7000,19 +6996,19 @@
         <v>4</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N71" s="1">
         <v>150</v>
@@ -7030,18 +7026,18 @@
         <v>37.79</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>111</v>
@@ -7050,7 +7046,7 @@
         <v>126</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>3</v>
@@ -7059,19 +7055,19 @@
         <v>4</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N72" s="1">
         <v>150.71</v>
@@ -7089,18 +7085,18 @@
         <v>128.1</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>111</v>
@@ -7109,7 +7105,7 @@
         <v>126</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>3</v>
@@ -7118,19 +7114,19 @@
         <v>4</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N73" s="1">
         <v>150</v>
@@ -7148,21 +7144,21 @@
         <v>38.409999999999997</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>44</v>
@@ -7175,17 +7171,17 @@
         <v>4</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N74" s="1">
         <v>116.56</v>
@@ -7203,21 +7199,21 @@
         <v>330.31</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>44</v>
@@ -7230,17 +7226,17 @@
         <v>4</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N75" s="1">
         <v>150</v>
@@ -7258,27 +7254,27 @@
         <v>622.42999999999995</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>3</v>
@@ -7287,19 +7283,19 @@
         <v>4</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N76" s="1">
         <v>150</v>
@@ -7317,21 +7313,21 @@
         <v>73.53</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>44</v>
@@ -7344,19 +7340,19 @@
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N77" s="1">
         <v>138</v>
@@ -7374,48 +7370,48 @@
         <v>485.69</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="M78" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N78" s="1">
         <v>138</v>
@@ -7434,21 +7430,21 @@
         <v>426.21020027569432</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>44</v>
@@ -7461,19 +7457,19 @@
         <v>4</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N79" s="1">
         <f>P79/O79</f>
@@ -7493,21 +7489,21 @@
         <v>374.68979235905238</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>44</v>
@@ -7520,19 +7516,19 @@
         <v>4</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N80" s="1">
         <f t="shared" ref="N80:N86" si="0">P80/O80</f>
@@ -7552,21 +7548,21 @@
         <v>402.82618890043898</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>44</v>
@@ -7579,19 +7575,19 @@
         <v>4</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N81" s="1">
         <f t="shared" si="0"/>
@@ -7611,21 +7607,21 @@
         <v>269.78344862051853</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>44</v>
@@ -7638,19 +7634,19 @@
         <v>4</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N82" s="1">
         <f t="shared" si="0"/>
@@ -7670,21 +7666,21 @@
         <v>204.13491087931058</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>44</v>
@@ -7697,19 +7693,19 @@
         <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="0"/>
@@ -7729,21 +7725,21 @@
         <v>228.53008488225453</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>44</v>
@@ -7756,19 +7752,19 @@
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" si="0"/>
@@ -7788,21 +7784,21 @@
         <v>138.3221633709239</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>44</v>
@@ -7815,19 +7811,19 @@
         <v>4</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" si="0"/>
@@ -7847,21 +7843,21 @@
         <v>263.53641613513622</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>44</v>
@@ -7874,19 +7870,19 @@
         <v>4</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N86" s="1">
         <f t="shared" si="0"/>
@@ -7906,21 +7902,21 @@
         <v>231.22390592682811</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>44</v>
@@ -7933,19 +7929,19 @@
         <v>4</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N87" s="1">
         <v>136.5</v>
@@ -7963,21 +7959,21 @@
         <v>341.8</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>44</v>
@@ -7990,17 +7986,17 @@
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N88" s="1">
         <v>150</v>
@@ -8018,21 +8014,21 @@
         <v>76.38</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>44</v>
@@ -8045,17 +8041,17 @@
         <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N89" s="1">
         <v>150</v>
@@ -8073,21 +8069,21 @@
         <v>74.739999999999995</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>44</v>
@@ -8100,19 +8096,19 @@
         <v>4</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N90" s="1">
         <v>150</v>
@@ -8130,21 +8126,21 @@
         <v>47.13</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>44</v>
@@ -8157,19 +8153,19 @@
         <v>4</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N91" s="1">
         <v>150</v>
@@ -8187,48 +8183,48 @@
         <v>55.9</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="N92" s="1">
         <v>150</v>
@@ -8246,21 +8242,21 @@
         <v>86.09</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>44</v>
@@ -8273,19 +8269,19 @@
         <v>4</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N93" s="1">
         <v>150</v>
@@ -8303,18 +8299,18 @@
         <v>51.89</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>111</v>
@@ -8330,19 +8326,19 @@
         <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N94" s="1">
         <v>151</v>
@@ -8360,18 +8356,18 @@
         <v>66.19</v>
       </c>
       <c r="S94" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="A95" s="10" t="s">
-        <v>499</v>
-      </c>
       <c r="B95" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>111</v>
@@ -8387,19 +8383,19 @@
         <v>4</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N95" s="1">
         <v>101</v>
@@ -8417,18 +8413,18 @@
         <v>164.11</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>111</v>
@@ -8444,19 +8440,19 @@
         <v>4</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N96" s="1">
         <v>150</v>
@@ -8474,21 +8470,21 @@
         <v>118.21</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>44</v>
@@ -8501,19 +8497,19 @@
         <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N97" s="1">
         <v>98.39</v>
@@ -8531,27 +8527,27 @@
         <v>128.97999999999999</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>3</v>
@@ -8560,48 +8556,48 @@
         <v>4</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
@@ -8617,17 +8613,17 @@
         <v>4</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N99" s="1">
         <v>100</v>
@@ -8645,27 +8641,27 @@
         <v>65.540000000000006</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>3</v>
@@ -8674,19 +8670,19 @@
         <v>4</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N100" s="1">
         <v>151</v>
@@ -8704,27 +8700,27 @@
         <v>35.799999999999997</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>3</v>
@@ -8733,19 +8729,19 @@
         <v>4</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N101" s="1">
         <v>151</v>
@@ -8763,18 +8759,18 @@
         <v>19.62</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -8783,28 +8779,28 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="N102" s="1">
         <v>100</v>
@@ -8822,18 +8818,18 @@
         <v>290.27999999999997</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>111</v>
@@ -8849,15 +8845,15 @@
         <v>4</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N103" s="1">
         <v>288.77</v>
@@ -8875,18 +8871,18 @@
         <v>28.79</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>111</v>
@@ -8902,19 +8898,19 @@
         <v>4</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="N104" s="1">
         <v>292</v>
@@ -8932,18 +8928,18 @@
         <v>31.12</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>111</v>
@@ -8959,15 +8955,15 @@
         <v>4</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N105" s="1">
         <v>101</v>
@@ -8985,18 +8981,18 @@
         <v>212.42</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>111</v>
@@ -9005,7 +9001,7 @@
         <v>126</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>3</v>
@@ -9014,15 +9010,15 @@
         <v>4</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N106" s="1">
         <v>251</v>
@@ -9040,18 +9036,18 @@
         <v>924.05</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>111</v>
@@ -9067,19 +9063,19 @@
         <v>4</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="N107" s="1">
         <v>151</v>
@@ -9097,18 +9093,18 @@
         <v>16.600000000000001</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>111</v>
@@ -9124,19 +9120,19 @@
         <v>4</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M108" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="N108" s="1">
         <v>100</v>
@@ -9154,46 +9150,46 @@
         <v>46.2</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N109" s="1">
         <v>149.19999999999999</v>
@@ -9211,46 +9207,46 @@
         <v>104.94</v>
       </c>
       <c r="S109" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="A110" s="10" t="s">
-        <v>590</v>
-      </c>
       <c r="B110" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N110" s="1">
         <v>150.24</v>
@@ -9268,18 +9264,18 @@
         <v>110.2</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>111</v>
@@ -9295,19 +9291,19 @@
         <v>4</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N111" s="1">
         <v>150</v>
@@ -9325,18 +9321,18 @@
         <v>98.81</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>111</v>
@@ -9352,19 +9348,19 @@
         <v>4</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J112" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="M112" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="N112" s="1">
         <v>75</v>
@@ -9382,18 +9378,18 @@
         <v>75.55</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>111</v>
@@ -9409,19 +9405,19 @@
         <v>4</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="N113" s="1">
         <v>90</v>
@@ -9439,48 +9435,48 @@
         <v>45.99</v>
       </c>
       <c r="S113" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
-      <c r="A114" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="N114" s="1">
         <v>104.61</v>
@@ -9498,48 +9494,48 @@
         <v>424.5</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="N115" s="1">
         <v>76.47</v>
@@ -9557,48 +9553,48 @@
         <v>67.599999999999994</v>
       </c>
       <c r="S115" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
-      <c r="A116" s="10" t="s">
-        <v>631</v>
-      </c>
       <c r="B116" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J116" s="1" t="s">
+      <c r="L116" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="N116" s="1">
         <v>125.23</v>
@@ -9616,48 +9612,48 @@
         <v>354.76</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="L117" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="N117" s="1">
         <v>116.8</v>
@@ -9675,48 +9671,48 @@
         <v>30.14</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="N118" s="1">
         <v>101</v>
@@ -9734,27 +9730,27 @@
         <v>213.14</v>
       </c>
       <c r="S118" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
-      <c r="A119" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>3</v>
@@ -9763,19 +9759,19 @@
         <v>4</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="N119" s="1">
         <v>101</v>
@@ -9793,27 +9789,27 @@
         <v>23.23</v>
       </c>
       <c r="S119" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
-      <c r="A120" s="10" t="s">
-        <v>655</v>
-      </c>
       <c r="B120" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>3</v>
@@ -9822,19 +9818,19 @@
         <v>4</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N120" s="1">
         <v>111.56</v>
@@ -9852,18 +9848,18 @@
         <v>544.99</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>111</v>
@@ -9881,19 +9877,19 @@
         <v>4</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J121" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="N121" s="1">
         <v>246.38</v>
@@ -9911,18 +9907,18 @@
         <v>477.13</v>
       </c>
       <c r="S121" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
-      <c r="A122" s="10" t="s">
-        <v>668</v>
-      </c>
       <c r="B122" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>111</v>
@@ -9940,19 +9936,19 @@
         <v>4</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N122" s="1">
         <v>150</v>
@@ -9970,18 +9966,18 @@
         <v>52.45</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>111</v>
@@ -9997,17 +9993,17 @@
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="N123" s="1">
         <v>148.62</v>
@@ -10025,48 +10021,48 @@
         <v>39.44</v>
       </c>
       <c r="S123" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
-      <c r="A124" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="G124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="J124" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="K124" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="N124" s="1">
         <v>151</v>
@@ -10084,18 +10080,18 @@
         <v>16.13</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>111</v>
@@ -10111,19 +10107,19 @@
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J125" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="N125" s="1">
         <v>150.11000000000001</v>
@@ -10141,18 +10137,18 @@
         <v>25.3</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>111</v>
@@ -10161,28 +10157,28 @@
         <v>126</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J126" s="1" t="s">
+      <c r="M126" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="N126" s="1">
         <v>149.72</v>
@@ -10200,18 +10196,18 @@
         <v>127.31</v>
       </c>
       <c r="S126" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
-      <c r="A127" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="B127" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>111</v>
@@ -10220,7 +10216,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>3</v>
@@ -10229,19 +10225,19 @@
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N127" s="1">
         <v>63.16</v>
@@ -10259,18 +10255,18 @@
         <v>49.25</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>111</v>
@@ -10279,7 +10275,7 @@
         <v>126</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>3</v>
@@ -10288,19 +10284,19 @@
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="N128" s="1">
         <v>101</v>
@@ -10318,18 +10314,18 @@
         <v>89.34</v>
       </c>
       <c r="S128" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
-      <c r="A129" s="10" t="s">
-        <v>720</v>
-      </c>
       <c r="B129" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>111</v>
@@ -10338,7 +10334,7 @@
         <v>126</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>3</v>
@@ -10347,19 +10343,19 @@
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N129" s="1">
         <v>149.5</v>
@@ -10377,18 +10373,18 @@
         <v>282.58</v>
       </c>
       <c r="S129" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
-      <c r="A130" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>111</v>
@@ -10397,7 +10393,7 @@
         <v>126</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>3</v>
@@ -10406,19 +10402,19 @@
         <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="N130" s="1">
         <v>148.35</v>
@@ -10436,18 +10432,18 @@
         <v>54.48</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1</v>
@@ -10456,28 +10452,28 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J131" s="1" t="s">
+      <c r="M131" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="N131" s="1">
         <v>106</v>
@@ -10495,32 +10491,32 @@
         <v>27.5</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
-      <c r="A134" s="9" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
-      <c r="A135" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="A136" s="8" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
-      <c r="A137" s="5" t="s">
-        <v>758</v>
       </c>
     </row>
   </sheetData>
